--- a/data/trans_orig/P20D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE878BEB-0022-4A40-B3EF-93C11B75D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DEDEF4-4C27-4EBB-9A97-CA1F75912DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F7E08A5-83E5-424E-AA40-23DDDDF36392}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21E7015B-794E-4E97-B5E7-5806B9901B57}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE90C1A5-25B7-4845-A50E-617A9F5F52DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3347A530-46F3-4320-8239-B39E657E97AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DEDEF4-4C27-4EBB-9A97-CA1F75912DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA1F0196-4D14-45A0-BEC7-C7E721B4E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21E7015B-794E-4E97-B5E7-5806B9901B57}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A868E78-B531-4354-B301-C18054CFC0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>59,93%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,52%</t>
   </si>
   <si>
     <t>25,17%</t>
@@ -119,7 +119,7 @@
     <t>40,07%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>87,48%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -134,19 +134,19 @@
     <t>17,58%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>68,92%</t>
@@ -158,19 +158,19 @@
     <t>82,42%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -179,55 +179,55 @@
     <t>60,7%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>39,3%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -236,94 +236,94 @@
     <t>82,12%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>55,2%</t>
@@ -338,64 +338,64 @@
     <t>35,99%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3347A530-46F3-4320-8239-B39E657E97AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C4D372-2EFE-41D3-97FB-0B7D8E1A23FF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
